--- a/pred_ohlcv/54_21/2020-01-22 PIVX ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-22 PIVX ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>-5205.083530889986</v>
       </c>
       <c r="H2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>-5203.083530889986</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>-11431.90763088999</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>-11431.90763088999</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>-12423.12003088999</v>
       </c>
       <c r="H6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>-12521.14943088999</v>
       </c>
       <c r="H7">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>-12784.65153088999</v>
       </c>
       <c r="H8">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>-18375.59033088999</v>
       </c>
       <c r="H9">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>-15775.59033088999</v>
       </c>
       <c r="H10">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>-15773.59033088999</v>
       </c>
       <c r="H11">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>-20577.91663088999</v>
       </c>
       <c r="H12">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -756,7 +756,7 @@
         <v>-20318.23463088999</v>
       </c>
       <c r="H14">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -808,7 +808,7 @@
         <v>-16302.12453088999</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>-13360.62683088999</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>-13364.62683088999</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>-16243.29913088999</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>-23806.80773088999</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>-21821.71913088999</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>-9221.025030889989</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>-9190.025030889989</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>-6325.672630889989</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>-10738.63853088999</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>-7887.566730889988</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>-4919.089430889988</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>9441.449369110012</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>24587.62346911001</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>22157.18976911001</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>15178.61776911001</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>15178.61776911001</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>41447.17516911001</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>37521.15776911001</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>37517.15776911001</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>37517.15776911001</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>35781.22366911001</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>35785.22366911001</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>37447.66546911001</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>37647.69546911001</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>40990.28816911001</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>40967.26506911001</v>
       </c>
       <c r="H51">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>40967.26506911001</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>40967.26506911001</v>
       </c>
       <c r="H53">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>47556.52920553002</v>
       </c>
       <c r="H54">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>61455.90410553002</v>
       </c>
       <c r="H55">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>42423.72700553002</v>
       </c>
       <c r="H56">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>42423.72700553002</v>
       </c>
       <c r="H57">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>93037.87205444001</v>
       </c>
       <c r="H91">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>95987.79775444002</v>
       </c>
       <c r="H92">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>94438.47889082001</v>
       </c>
       <c r="H150">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>97452.15979082002</v>
       </c>
       <c r="H151">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -5514,7 +5514,7 @@
         <v>135286.55509082</v>
       </c>
       <c r="H197">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -5540,7 +5540,7 @@
         <v>134703.13049082</v>
       </c>
       <c r="H198">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -5566,7 +5566,7 @@
         <v>129553.48179082</v>
       </c>
       <c r="H199">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -5592,7 +5592,7 @@
         <v>132197.4740371</v>
       </c>
       <c r="H200">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -5618,7 +5618,7 @@
         <v>132197.4740371</v>
       </c>
       <c r="H201">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -5644,7 +5644,7 @@
         <v>132197.4740371</v>
       </c>
       <c r="H202">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -5670,7 +5670,7 @@
         <v>132197.4740371</v>
       </c>
       <c r="H203">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -5696,7 +5696,7 @@
         <v>129352.3856371</v>
       </c>
       <c r="H204">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -5722,7 +5722,7 @@
         <v>126628.6333371</v>
       </c>
       <c r="H205">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -5748,7 +5748,7 @@
         <v>124628.6333371</v>
       </c>
       <c r="H206">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -5774,7 +5774,7 @@
         <v>124630.0958371</v>
       </c>
       <c r="H207">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -5800,7 +5800,7 @@
         <v>122256.7584371</v>
       </c>
       <c r="H208">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -5826,7 +5826,7 @@
         <v>121579.8793371</v>
       </c>
       <c r="H209">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -5852,7 +5852,7 @@
         <v>121599.8793371</v>
       </c>
       <c r="H210">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -5878,7 +5878,7 @@
         <v>121514.5517371</v>
       </c>
       <c r="H211">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -5904,7 +5904,7 @@
         <v>123784.3726371</v>
       </c>
       <c r="H212">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -5930,7 +5930,7 @@
         <v>123784.3726371</v>
       </c>
       <c r="H213">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -5956,7 +5956,7 @@
         <v>115630.7220371</v>
       </c>
       <c r="H214">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -5982,7 +5982,7 @@
         <v>115575.6052371</v>
       </c>
       <c r="H215">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -6008,7 +6008,7 @@
         <v>115775.6052371</v>
       </c>
       <c r="H216">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -6034,7 +6034,7 @@
         <v>113158.5264371</v>
       </c>
       <c r="H217">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -6060,7 +6060,7 @@
         <v>112645.6655371</v>
       </c>
       <c r="H218">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -6086,7 +6086,7 @@
         <v>112089.1025371</v>
       </c>
       <c r="H219">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -6112,7 +6112,7 @@
         <v>73925.25943710003</v>
       </c>
       <c r="H220">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -6138,7 +6138,7 @@
         <v>76479.32533710003</v>
       </c>
       <c r="H221">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -7646,7 +7646,7 @@
         <v>60608.26109523005</v>
       </c>
       <c r="H279">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -7698,7 +7698,7 @@
         <v>43115.23699523004</v>
       </c>
       <c r="H281">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -7724,7 +7724,7 @@
         <v>43427.73699523004</v>
       </c>
       <c r="H282">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -7750,7 +7750,7 @@
         <v>43427.73699523004</v>
       </c>
       <c r="H283">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -7802,7 +7802,7 @@
         <v>43425.73699523004</v>
       </c>
       <c r="H285">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -7828,7 +7828,7 @@
         <v>48431.50699523004</v>
       </c>
       <c r="H286">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -7854,7 +7854,7 @@
         <v>52400.21539523004</v>
       </c>
       <c r="H287">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -7906,7 +7906,7 @@
         <v>39921.45659523005</v>
       </c>
       <c r="H289">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -7932,7 +7932,7 @@
         <v>40235.93889523005</v>
       </c>
       <c r="H290">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -7958,7 +7958,7 @@
         <v>41148.07373294005</v>
       </c>
       <c r="H291">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -7984,7 +7984,7 @@
         <v>58870.11823294005</v>
       </c>
       <c r="H292">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -8010,7 +8010,7 @@
         <v>65012.86883294005</v>
       </c>
       <c r="H293">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -9934,7 +9934,7 @@
         <v>99562.91358504009</v>
       </c>
       <c r="H367">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="368" spans="1:8">
@@ -9960,7 +9960,7 @@
         <v>101664.5029850401</v>
       </c>
       <c r="H368">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="369" spans="1:8">
@@ -9986,7 +9986,7 @@
         <v>101664.5029850401</v>
       </c>
       <c r="H369">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="370" spans="1:8">
@@ -10012,7 +10012,7 @@
         <v>101855.7845850401</v>
       </c>
       <c r="H370">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="371" spans="1:8">
@@ -10038,7 +10038,7 @@
         <v>99040.93988504009</v>
       </c>
       <c r="H371">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="372" spans="1:8">
@@ -10064,7 +10064,7 @@
         <v>99045.9442850401</v>
       </c>
       <c r="H372">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="373" spans="1:8">
@@ -10090,7 +10090,7 @@
         <v>103615.2303843001</v>
       </c>
       <c r="H373">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="374" spans="1:8">
@@ -10116,7 +10116,7 @@
         <v>104944.4350843001</v>
       </c>
       <c r="H374">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="375" spans="1:8">
@@ -10142,7 +10142,7 @@
         <v>103687.2448843001</v>
       </c>
       <c r="H375">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="376" spans="1:8">
@@ -10168,7 +10168,7 @@
         <v>90437.72113810011</v>
       </c>
       <c r="H376">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="377" spans="1:8">
@@ -10194,7 +10194,7 @@
         <v>90437.72113810011</v>
       </c>
       <c r="H377">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="378" spans="1:8">
@@ -10220,7 +10220,7 @@
         <v>101385.6236366501</v>
       </c>
       <c r="H378">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="379" spans="1:8">
@@ -10246,7 +10246,7 @@
         <v>105619.8048366501</v>
       </c>
       <c r="H379">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="380" spans="1:8">
@@ -10272,7 +10272,7 @@
         <v>103386.7079366501</v>
       </c>
       <c r="H380">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="381" spans="1:8">
@@ -10298,7 +10298,7 @@
         <v>105206.7303366501</v>
       </c>
       <c r="H381">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="382" spans="1:8">
@@ -10324,7 +10324,7 @@
         <v>105206.7303366501</v>
       </c>
       <c r="H382">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="383" spans="1:8">
@@ -10350,7 +10350,7 @@
         <v>102386.7588366501</v>
       </c>
       <c r="H383">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="384" spans="1:8">
@@ -10376,7 +10376,7 @@
         <v>102386.7588366501</v>
       </c>
       <c r="H384">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="385" spans="1:8">
@@ -10402,7 +10402,7 @@
         <v>101136.3013366501</v>
       </c>
       <c r="H385">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="386" spans="1:8">
@@ -10428,7 +10428,7 @@
         <v>102111.3011366501</v>
       </c>
       <c r="H386">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="387" spans="1:8">
@@ -10454,7 +10454,7 @@
         <v>102111.3011366501</v>
       </c>
       <c r="H387">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="388" spans="1:8">
@@ -10480,7 +10480,7 @@
         <v>102111.3011366501</v>
       </c>
       <c r="H388">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="389" spans="1:8">
@@ -10506,7 +10506,7 @@
         <v>101469.3011366501</v>
       </c>
       <c r="H389">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="390" spans="1:8">
@@ -10532,7 +10532,7 @@
         <v>90472.09883665011</v>
       </c>
       <c r="H390">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="391" spans="1:8">
@@ -10558,7 +10558,7 @@
         <v>90472.09883665011</v>
       </c>
       <c r="H391">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="392" spans="1:8">
@@ -10584,7 +10584,7 @@
         <v>89483.36413665011</v>
       </c>
       <c r="H392">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="393" spans="1:8">
@@ -10610,7 +10610,7 @@
         <v>89483.36413665011</v>
       </c>
       <c r="H393">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="394" spans="1:8">
@@ -10636,7 +10636,7 @@
         <v>89483.36413665011</v>
       </c>
       <c r="H394">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="395" spans="1:8">
@@ -10662,7 +10662,7 @@
         <v>87483.22563665011</v>
       </c>
       <c r="H395">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="396" spans="1:8">
@@ -10688,7 +10688,7 @@
         <v>89821.79643665011</v>
       </c>
       <c r="H396">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="397" spans="1:8">
@@ -10714,7 +10714,7 @@
         <v>86306.23013665011</v>
       </c>
       <c r="H397">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="398" spans="1:8">
@@ -10740,7 +10740,7 @@
         <v>86310.23013665011</v>
       </c>
       <c r="H398">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="399" spans="1:8">
@@ -10766,7 +10766,7 @@
         <v>86310.23013665011</v>
       </c>
       <c r="H399">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="400" spans="1:8">
@@ -10792,7 +10792,7 @@
         <v>82363.70513665011</v>
       </c>
       <c r="H400">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="401" spans="1:8">
@@ -10818,7 +10818,7 @@
         <v>82231.66553665011</v>
       </c>
       <c r="H401">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="402" spans="1:8">
@@ -10844,7 +10844,7 @@
         <v>83431.66553665011</v>
       </c>
       <c r="H402">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="403" spans="1:8">
@@ -10870,7 +10870,7 @@
         <v>83431.66553665011</v>
       </c>
       <c r="H403">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="404" spans="1:8">
@@ -10896,7 +10896,7 @@
         <v>83433.26553665011</v>
       </c>
       <c r="H404">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="405" spans="1:8">
@@ -10922,7 +10922,7 @@
         <v>81336.40443665012</v>
       </c>
       <c r="H405">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="406" spans="1:8">
@@ -12404,7 +12404,7 @@
         <v>70004.60764400013</v>
       </c>
       <c r="H462">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="463" spans="1:8">
@@ -12430,7 +12430,7 @@
         <v>67759.67794400014</v>
       </c>
       <c r="H463">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="464" spans="1:8">
@@ -12456,7 +12456,7 @@
         <v>67761.67794400014</v>
       </c>
       <c r="H464">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="465" spans="1:8">
@@ -12482,7 +12482,7 @@
         <v>67025.67804400015</v>
       </c>
       <c r="H465">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="466" spans="1:8">
@@ -12508,7 +12508,7 @@
         <v>67025.67804400015</v>
       </c>
       <c r="H466">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="467" spans="1:8">
@@ -12534,7 +12534,7 @@
         <v>67027.67804400015</v>
       </c>
       <c r="H467">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="468" spans="1:8">
@@ -12560,7 +12560,7 @@
         <v>67019.67804400015</v>
       </c>
       <c r="H468">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="469" spans="1:8">
@@ -13678,7 +13678,7 @@
         <v>20295.50124400015</v>
       </c>
       <c r="H511">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="512" spans="1:8">
@@ -13704,7 +13704,7 @@
         <v>20200.11874400015</v>
       </c>
       <c r="H512">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="513" spans="1:8">
@@ -13730,7 +13730,7 @@
         <v>20195.18414400015</v>
       </c>
       <c r="H513">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="514" spans="1:8">
@@ -13756,7 +13756,7 @@
         <v>20333.22554400015</v>
       </c>
       <c r="H514">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="515" spans="1:8">
@@ -13782,7 +13782,7 @@
         <v>20338.16014400015</v>
       </c>
       <c r="H515">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="516" spans="1:8">
@@ -13912,7 +13912,7 @@
         <v>20682.86744400015</v>
       </c>
       <c r="H520">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="521" spans="1:8">
@@ -13938,7 +13938,7 @@
         <v>22391.96274400015</v>
       </c>
       <c r="H521">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="522" spans="1:8">
@@ -14068,7 +14068,7 @@
         <v>61016.11865278015</v>
       </c>
       <c r="H526">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="527" spans="1:8">
@@ -14094,7 +14094,7 @@
         <v>61016.11865278015</v>
       </c>
       <c r="H527">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="528" spans="1:8">
@@ -14120,7 +14120,7 @@
         <v>76402.90665278015</v>
       </c>
       <c r="H528">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="529" spans="1:8">
@@ -14146,7 +14146,7 @@
         <v>93317.46029439016</v>
       </c>
       <c r="H529">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="530" spans="1:8">
@@ -14172,7 +14172,7 @@
         <v>100479.4267943902</v>
       </c>
       <c r="H530">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="531" spans="1:8">
@@ -14198,7 +14198,7 @@
         <v>110262.5087810301</v>
       </c>
       <c r="H531">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="532" spans="1:8">
@@ -14224,7 +14224,7 @@
         <v>131066.0220584401</v>
       </c>
       <c r="H532">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="533" spans="1:8">
@@ -14666,7 +14666,7 @@
         <v>109432.1185618002</v>
       </c>
       <c r="H549">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="550" spans="1:8">
@@ -14692,7 +14692,7 @@
         <v>119798.7363618002</v>
       </c>
       <c r="H550">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="551" spans="1:8">
@@ -14718,7 +14718,7 @@
         <v>128253.9697618002</v>
       </c>
       <c r="H551">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="552" spans="1:8">
@@ -14874,7 +14874,7 @@
         <v>146535.9152307001</v>
       </c>
       <c r="H557">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="558" spans="1:8">
@@ -14900,7 +14900,7 @@
         <v>146535.9152307001</v>
       </c>
       <c r="H558">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="559" spans="1:8">
@@ -14926,7 +14926,7 @@
         <v>146535.9152307001</v>
       </c>
       <c r="H559">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="560" spans="1:8">
@@ -14952,7 +14952,7 @@
         <v>146535.9152307001</v>
       </c>
       <c r="H560">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="561" spans="1:8">
@@ -14978,7 +14978,7 @@
         <v>181713.8435649402</v>
       </c>
       <c r="H561">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="562" spans="1:8">
@@ -15030,7 +15030,7 @@
         <v>138261.6982649401</v>
       </c>
       <c r="H563">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="564" spans="1:8">
@@ -15108,7 +15108,7 @@
         <v>158722.8776649402</v>
       </c>
       <c r="H566">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="567" spans="1:8">
@@ -15134,7 +15134,7 @@
         <v>158722.8776649402</v>
       </c>
       <c r="H567">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="568" spans="1:8">
@@ -15160,7 +15160,7 @@
         <v>154630.2754649402</v>
       </c>
       <c r="H568">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="569" spans="1:8">
@@ -15212,7 +15212,7 @@
         <v>160464.2948019502</v>
       </c>
       <c r="H570">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="571" spans="1:8">
@@ -15238,7 +15238,7 @@
         <v>159916.5517080302</v>
       </c>
       <c r="H571">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="572" spans="1:8">
@@ -15264,7 +15264,7 @@
         <v>203261.3041313402</v>
       </c>
       <c r="H572">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="573" spans="1:8">
@@ -15290,7 +15290,7 @@
         <v>203261.3041313402</v>
       </c>
       <c r="H573">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="574" spans="1:8">
@@ -15316,7 +15316,7 @@
         <v>184863.1865317302</v>
       </c>
       <c r="H574">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="575" spans="1:8">
@@ -15342,7 +15342,7 @@
         <v>178664.5761317302</v>
       </c>
       <c r="H575">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="576" spans="1:8">
@@ -15368,7 +15368,7 @@
         <v>137202.6549645502</v>
       </c>
       <c r="H576">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="577" spans="1:8">
@@ -15394,7 +15394,7 @@
         <v>137350.5237645502</v>
       </c>
       <c r="H577">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="578" spans="1:8">
@@ -15420,7 +15420,7 @@
         <v>136350.7026645502</v>
       </c>
       <c r="H578">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="579" spans="1:8">
@@ -15888,7 +15888,7 @@
         <v>86957.19977938014</v>
       </c>
       <c r="H596">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="597" spans="1:8">
@@ -15914,7 +15914,7 @@
         <v>83470.02857938014</v>
       </c>
       <c r="H597">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="598" spans="1:8">
@@ -15940,7 +15940,7 @@
         <v>86937.05757938014</v>
       </c>
       <c r="H598">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="599" spans="1:8">
@@ -16044,7 +16044,7 @@
         <v>85129.45177938014</v>
       </c>
       <c r="H602">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="603" spans="1:8">
@@ -16070,7 +16070,7 @@
         <v>82839.36517938014</v>
       </c>
       <c r="H603">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="604" spans="1:8">

--- a/pred_ohlcv/54_21/2020-01-22 PIVX ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-22 PIVX ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>-5205.083530889986</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>-5203.083530889986</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>-11431.90763088999</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>-11431.90763088999</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>-12423.12003088999</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>-12521.14943088999</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>-12784.65153088999</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>-18375.59033088999</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>-15775.59033088999</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>-15773.59033088999</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>-20577.91663088999</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -756,7 +756,7 @@
         <v>-20318.23463088999</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -834,7 +834,7 @@
         <v>-13360.62683088999</v>
       </c>
       <c r="H17">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -938,7 +938,7 @@
         <v>-21821.71913088999</v>
       </c>
       <c r="H21">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -990,7 +990,7 @@
         <v>-9190.025030889989</v>
       </c>
       <c r="H23">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>-10738.63853088999</v>
       </c>
       <c r="H25">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>-7887.566730889988</v>
       </c>
       <c r="H26">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>-4919.089430889988</v>
       </c>
       <c r="H27">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>9441.449369110012</v>
       </c>
       <c r="H28">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>24587.62346911001</v>
       </c>
       <c r="H29">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>22157.18976911001</v>
       </c>
       <c r="H32">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>15178.61776911001</v>
       </c>
       <c r="H37">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>15178.61776911001</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>13893.61786911001</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>37521.15776911001</v>
       </c>
       <c r="H43">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>37517.15776911001</v>
       </c>
       <c r="H44">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>37517.15776911001</v>
       </c>
       <c r="H45">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>35781.22366911001</v>
       </c>
       <c r="H46">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>35785.22366911001</v>
       </c>
       <c r="H47">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>37447.66546911001</v>
       </c>
       <c r="H48">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>37647.69546911001</v>
       </c>
       <c r="H49">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>40990.28816911001</v>
       </c>
       <c r="H50">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>40967.26506911001</v>
       </c>
       <c r="H51">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>40967.26506911001</v>
       </c>
       <c r="H52">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>40967.26506911001</v>
       </c>
       <c r="H53">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>47556.52920553002</v>
       </c>
       <c r="H54">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>61455.90410553002</v>
       </c>
       <c r="H55">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>42423.72700553002</v>
       </c>
       <c r="H56">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>42423.72700553002</v>
       </c>
       <c r="H57">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>93037.87205444001</v>
       </c>
       <c r="H91">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>95987.79775444002</v>
       </c>
       <c r="H92">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>94438.47889082001</v>
       </c>
       <c r="H150">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>97452.15979082002</v>
       </c>
       <c r="H151">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -5514,7 +5514,7 @@
         <v>135286.55509082</v>
       </c>
       <c r="H197">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -5540,7 +5540,7 @@
         <v>134703.13049082</v>
       </c>
       <c r="H198">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -5566,7 +5566,7 @@
         <v>129553.48179082</v>
       </c>
       <c r="H199">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -5592,7 +5592,7 @@
         <v>132197.4740371</v>
       </c>
       <c r="H200">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -5618,7 +5618,7 @@
         <v>132197.4740371</v>
       </c>
       <c r="H201">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -5644,7 +5644,7 @@
         <v>132197.4740371</v>
       </c>
       <c r="H202">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -5670,7 +5670,7 @@
         <v>132197.4740371</v>
       </c>
       <c r="H203">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -5696,7 +5696,7 @@
         <v>129352.3856371</v>
       </c>
       <c r="H204">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -5722,7 +5722,7 @@
         <v>126628.6333371</v>
       </c>
       <c r="H205">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -5748,7 +5748,7 @@
         <v>124628.6333371</v>
       </c>
       <c r="H206">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -5774,7 +5774,7 @@
         <v>124630.0958371</v>
       </c>
       <c r="H207">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -5800,7 +5800,7 @@
         <v>122256.7584371</v>
       </c>
       <c r="H208">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -5826,7 +5826,7 @@
         <v>121579.8793371</v>
       </c>
       <c r="H209">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -5852,7 +5852,7 @@
         <v>121599.8793371</v>
       </c>
       <c r="H210">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -5878,7 +5878,7 @@
         <v>121514.5517371</v>
       </c>
       <c r="H211">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -5904,7 +5904,7 @@
         <v>123784.3726371</v>
       </c>
       <c r="H212">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -5930,7 +5930,7 @@
         <v>123784.3726371</v>
       </c>
       <c r="H213">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -5956,7 +5956,7 @@
         <v>115630.7220371</v>
       </c>
       <c r="H214">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -5982,7 +5982,7 @@
         <v>115575.6052371</v>
       </c>
       <c r="H215">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -6008,7 +6008,7 @@
         <v>115775.6052371</v>
       </c>
       <c r="H216">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -6034,7 +6034,7 @@
         <v>113158.5264371</v>
       </c>
       <c r="H217">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -6060,7 +6060,7 @@
         <v>112645.6655371</v>
       </c>
       <c r="H218">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -6086,7 +6086,7 @@
         <v>112089.1025371</v>
       </c>
       <c r="H219">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -6112,7 +6112,7 @@
         <v>73925.25943710003</v>
       </c>
       <c r="H220">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -6138,7 +6138,7 @@
         <v>76479.32533710003</v>
       </c>
       <c r="H221">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -7646,7 +7646,7 @@
         <v>60608.26109523005</v>
       </c>
       <c r="H279">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -7698,7 +7698,7 @@
         <v>43115.23699523004</v>
       </c>
       <c r="H281">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -7724,7 +7724,7 @@
         <v>43427.73699523004</v>
       </c>
       <c r="H282">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -7750,7 +7750,7 @@
         <v>43427.73699523004</v>
       </c>
       <c r="H283">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -7802,7 +7802,7 @@
         <v>43425.73699523004</v>
       </c>
       <c r="H285">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -7828,7 +7828,7 @@
         <v>48431.50699523004</v>
       </c>
       <c r="H286">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -7854,7 +7854,7 @@
         <v>52400.21539523004</v>
       </c>
       <c r="H287">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -7906,7 +7906,7 @@
         <v>39921.45659523005</v>
       </c>
       <c r="H289">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -7932,7 +7932,7 @@
         <v>40235.93889523005</v>
       </c>
       <c r="H290">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -7958,7 +7958,7 @@
         <v>41148.07373294005</v>
       </c>
       <c r="H291">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -7984,7 +7984,7 @@
         <v>58870.11823294005</v>
       </c>
       <c r="H292">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -8010,7 +8010,7 @@
         <v>65012.86883294005</v>
       </c>
       <c r="H293">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -9934,7 +9934,7 @@
         <v>99562.91358504009</v>
       </c>
       <c r="H367">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="368" spans="1:8">
@@ -9960,7 +9960,7 @@
         <v>101664.5029850401</v>
       </c>
       <c r="H368">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="369" spans="1:8">
@@ -9986,7 +9986,7 @@
         <v>101664.5029850401</v>
       </c>
       <c r="H369">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="370" spans="1:8">
@@ -10012,7 +10012,7 @@
         <v>101855.7845850401</v>
       </c>
       <c r="H370">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="371" spans="1:8">
@@ -10038,7 +10038,7 @@
         <v>99040.93988504009</v>
       </c>
       <c r="H371">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="372" spans="1:8">
@@ -10064,7 +10064,7 @@
         <v>99045.9442850401</v>
       </c>
       <c r="H372">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="373" spans="1:8">
@@ -10090,7 +10090,7 @@
         <v>103615.2303843001</v>
       </c>
       <c r="H373">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="374" spans="1:8">
@@ -10116,7 +10116,7 @@
         <v>104944.4350843001</v>
       </c>
       <c r="H374">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="375" spans="1:8">
@@ -10142,7 +10142,7 @@
         <v>103687.2448843001</v>
       </c>
       <c r="H375">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="376" spans="1:8">
@@ -10168,7 +10168,7 @@
         <v>90437.72113810011</v>
       </c>
       <c r="H376">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="377" spans="1:8">
@@ -10194,7 +10194,7 @@
         <v>90437.72113810011</v>
       </c>
       <c r="H377">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="378" spans="1:8">
@@ -10220,7 +10220,7 @@
         <v>101385.6236366501</v>
       </c>
       <c r="H378">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="379" spans="1:8">
@@ -10246,7 +10246,7 @@
         <v>105619.8048366501</v>
       </c>
       <c r="H379">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="380" spans="1:8">
@@ -10272,7 +10272,7 @@
         <v>103386.7079366501</v>
       </c>
       <c r="H380">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="381" spans="1:8">
@@ -10298,7 +10298,7 @@
         <v>105206.7303366501</v>
       </c>
       <c r="H381">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="382" spans="1:8">
@@ -10324,7 +10324,7 @@
         <v>105206.7303366501</v>
       </c>
       <c r="H382">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="383" spans="1:8">
@@ -10350,7 +10350,7 @@
         <v>102386.7588366501</v>
       </c>
       <c r="H383">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="384" spans="1:8">
@@ -10376,7 +10376,7 @@
         <v>102386.7588366501</v>
       </c>
       <c r="H384">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="385" spans="1:8">
@@ -10402,7 +10402,7 @@
         <v>101136.3013366501</v>
       </c>
       <c r="H385">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="386" spans="1:8">
@@ -10428,7 +10428,7 @@
         <v>102111.3011366501</v>
       </c>
       <c r="H386">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="387" spans="1:8">
@@ -10454,7 +10454,7 @@
         <v>102111.3011366501</v>
       </c>
       <c r="H387">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="388" spans="1:8">
@@ -10480,7 +10480,7 @@
         <v>102111.3011366501</v>
       </c>
       <c r="H388">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="389" spans="1:8">
@@ -10506,7 +10506,7 @@
         <v>101469.3011366501</v>
       </c>
       <c r="H389">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="390" spans="1:8">
@@ -10532,7 +10532,7 @@
         <v>90472.09883665011</v>
       </c>
       <c r="H390">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="391" spans="1:8">
@@ -10558,7 +10558,7 @@
         <v>90472.09883665011</v>
       </c>
       <c r="H391">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="392" spans="1:8">
@@ -10584,7 +10584,7 @@
         <v>89483.36413665011</v>
       </c>
       <c r="H392">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="393" spans="1:8">
@@ -10610,7 +10610,7 @@
         <v>89483.36413665011</v>
       </c>
       <c r="H393">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="394" spans="1:8">
@@ -10636,7 +10636,7 @@
         <v>89483.36413665011</v>
       </c>
       <c r="H394">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="395" spans="1:8">
@@ -10662,7 +10662,7 @@
         <v>87483.22563665011</v>
       </c>
       <c r="H395">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="396" spans="1:8">
@@ -10688,7 +10688,7 @@
         <v>89821.79643665011</v>
       </c>
       <c r="H396">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="397" spans="1:8">
@@ -10714,7 +10714,7 @@
         <v>86306.23013665011</v>
       </c>
       <c r="H397">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="398" spans="1:8">
@@ -10740,7 +10740,7 @@
         <v>86310.23013665011</v>
       </c>
       <c r="H398">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="399" spans="1:8">
@@ -10766,7 +10766,7 @@
         <v>86310.23013665011</v>
       </c>
       <c r="H399">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="400" spans="1:8">
@@ -10792,7 +10792,7 @@
         <v>82363.70513665011</v>
       </c>
       <c r="H400">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="401" spans="1:8">
@@ -10818,7 +10818,7 @@
         <v>82231.66553665011</v>
       </c>
       <c r="H401">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="402" spans="1:8">
@@ -10844,7 +10844,7 @@
         <v>83431.66553665011</v>
       </c>
       <c r="H402">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="403" spans="1:8">
@@ -10870,7 +10870,7 @@
         <v>83431.66553665011</v>
       </c>
       <c r="H403">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="404" spans="1:8">
@@ -10896,7 +10896,7 @@
         <v>83433.26553665011</v>
       </c>
       <c r="H404">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="405" spans="1:8">
@@ -10922,7 +10922,7 @@
         <v>81336.40443665012</v>
       </c>
       <c r="H405">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="406" spans="1:8">
@@ -12404,7 +12404,7 @@
         <v>70004.60764400013</v>
       </c>
       <c r="H462">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="463" spans="1:8">
@@ -12430,7 +12430,7 @@
         <v>67759.67794400014</v>
       </c>
       <c r="H463">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="464" spans="1:8">
@@ -12456,7 +12456,7 @@
         <v>67761.67794400014</v>
       </c>
       <c r="H464">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="465" spans="1:8">
@@ -12482,7 +12482,7 @@
         <v>67025.67804400015</v>
       </c>
       <c r="H465">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="466" spans="1:8">
@@ -12508,7 +12508,7 @@
         <v>67025.67804400015</v>
       </c>
       <c r="H466">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="467" spans="1:8">
@@ -12534,7 +12534,7 @@
         <v>67027.67804400015</v>
       </c>
       <c r="H467">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="468" spans="1:8">
@@ -12560,7 +12560,7 @@
         <v>67019.67804400015</v>
       </c>
       <c r="H468">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="469" spans="1:8">
@@ -13678,7 +13678,7 @@
         <v>20295.50124400015</v>
       </c>
       <c r="H511">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="512" spans="1:8">
@@ -13704,7 +13704,7 @@
         <v>20200.11874400015</v>
       </c>
       <c r="H512">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="513" spans="1:8">
@@ -13730,7 +13730,7 @@
         <v>20195.18414400015</v>
       </c>
       <c r="H513">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="514" spans="1:8">
@@ -13756,7 +13756,7 @@
         <v>20333.22554400015</v>
       </c>
       <c r="H514">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="515" spans="1:8">
@@ -13782,7 +13782,7 @@
         <v>20338.16014400015</v>
       </c>
       <c r="H515">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="516" spans="1:8">
@@ -13912,7 +13912,7 @@
         <v>20682.86744400015</v>
       </c>
       <c r="H520">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="521" spans="1:8">
@@ -13938,7 +13938,7 @@
         <v>22391.96274400015</v>
       </c>
       <c r="H521">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="522" spans="1:8">
@@ -14068,7 +14068,7 @@
         <v>61016.11865278015</v>
       </c>
       <c r="H526">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="527" spans="1:8">
@@ -14094,7 +14094,7 @@
         <v>61016.11865278015</v>
       </c>
       <c r="H527">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="528" spans="1:8">
@@ -14120,7 +14120,7 @@
         <v>76402.90665278015</v>
       </c>
       <c r="H528">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="529" spans="1:8">
@@ -14146,7 +14146,7 @@
         <v>93317.46029439016</v>
       </c>
       <c r="H529">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="530" spans="1:8">
@@ -14172,7 +14172,7 @@
         <v>100479.4267943902</v>
       </c>
       <c r="H530">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="531" spans="1:8">
@@ -14198,7 +14198,7 @@
         <v>110262.5087810301</v>
       </c>
       <c r="H531">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="532" spans="1:8">
@@ -14224,7 +14224,7 @@
         <v>131066.0220584401</v>
       </c>
       <c r="H532">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="533" spans="1:8">
@@ -14666,7 +14666,7 @@
         <v>109432.1185618002</v>
       </c>
       <c r="H549">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="550" spans="1:8">
@@ -14692,7 +14692,7 @@
         <v>119798.7363618002</v>
       </c>
       <c r="H550">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="551" spans="1:8">
@@ -14718,7 +14718,7 @@
         <v>128253.9697618002</v>
       </c>
       <c r="H551">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="552" spans="1:8">
@@ -14874,7 +14874,7 @@
         <v>146535.9152307001</v>
       </c>
       <c r="H557">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="558" spans="1:8">
@@ -14900,7 +14900,7 @@
         <v>146535.9152307001</v>
       </c>
       <c r="H558">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="559" spans="1:8">
@@ -14926,7 +14926,7 @@
         <v>146535.9152307001</v>
       </c>
       <c r="H559">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="560" spans="1:8">
@@ -14952,7 +14952,7 @@
         <v>146535.9152307001</v>
       </c>
       <c r="H560">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="561" spans="1:8">
@@ -14978,7 +14978,7 @@
         <v>181713.8435649402</v>
       </c>
       <c r="H561">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="562" spans="1:8">
@@ -15004,7 +15004,7 @@
         <v>133101.5231649402</v>
       </c>
       <c r="H562">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="563" spans="1:8">
@@ -15030,7 +15030,7 @@
         <v>138261.6982649401</v>
       </c>
       <c r="H563">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="564" spans="1:8">
@@ -15056,7 +15056,7 @@
         <v>149276.0170649402</v>
       </c>
       <c r="H564">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="565" spans="1:8">
@@ -15108,7 +15108,7 @@
         <v>158722.8776649402</v>
       </c>
       <c r="H566">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="567" spans="1:8">
@@ -15134,7 +15134,7 @@
         <v>158722.8776649402</v>
       </c>
       <c r="H567">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="568" spans="1:8">
@@ -15264,7 +15264,7 @@
         <v>203261.3041313402</v>
       </c>
       <c r="H572">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="573" spans="1:8">
@@ -15290,7 +15290,7 @@
         <v>203261.3041313402</v>
       </c>
       <c r="H573">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="574" spans="1:8">
@@ -15316,7 +15316,7 @@
         <v>184863.1865317302</v>
       </c>
       <c r="H574">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="575" spans="1:8">
@@ -15342,7 +15342,7 @@
         <v>178664.5761317302</v>
       </c>
       <c r="H575">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="576" spans="1:8">
@@ -15368,7 +15368,7 @@
         <v>137202.6549645502</v>
       </c>
       <c r="H576">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="577" spans="1:8">
@@ -15394,7 +15394,7 @@
         <v>137350.5237645502</v>
       </c>
       <c r="H577">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="578" spans="1:8">
@@ -15420,7 +15420,7 @@
         <v>136350.7026645502</v>
       </c>
       <c r="H578">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="579" spans="1:8">
@@ -15888,7 +15888,7 @@
         <v>86957.19977938014</v>
       </c>
       <c r="H596">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="597" spans="1:8">
@@ -15914,7 +15914,7 @@
         <v>83470.02857938014</v>
       </c>
       <c r="H597">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="598" spans="1:8">
@@ -15940,7 +15940,7 @@
         <v>86937.05757938014</v>
       </c>
       <c r="H598">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="599" spans="1:8">
@@ -16044,7 +16044,7 @@
         <v>85129.45177938014</v>
       </c>
       <c r="H602">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="603" spans="1:8">
@@ -16070,7 +16070,7 @@
         <v>82839.36517938014</v>
       </c>
       <c r="H603">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="604" spans="1:8">
